--- a/SampleDataFromEric.xlsx
+++ b/SampleDataFromEric.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2097,11 +2097,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1429984992"/>
-        <c:axId val="1429982944"/>
+        <c:axId val="-626166512"/>
+        <c:axId val="-626164736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1429984992"/>
+        <c:axId val="-626166512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,12 +2157,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1429982944"/>
+        <c:crossAx val="-626164736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1429982944"/>
+        <c:axId val="-626164736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,6 +2182,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2218,7 +2219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1429984992"/>
+        <c:crossAx val="-626166512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3606,11 +3607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1430125856"/>
-        <c:axId val="1430127216"/>
+        <c:axId val="-625992704"/>
+        <c:axId val="-625990224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1430125856"/>
+        <c:axId val="-625992704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,12 +3667,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430127216"/>
+        <c:crossAx val="-625990224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1430127216"/>
+        <c:axId val="-625990224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3727,7 +3728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430125856"/>
+        <c:crossAx val="-625992704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4892,16 +4893,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4928,10 +4929,10 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5221,7 +5222,7 @@
   <dimension ref="A1:D632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
